--- a/data/trans_camb/PCS12_SP_R3-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/PCS12_SP_R3-Dificultad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-8.602499685228482</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>2.251643495225148</v>
+        <v>2.251643495225142</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-8.858266236536434</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-13.21394888754604</v>
+        <v>-13.0421468911601</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-12.64000462571656</v>
+        <v>-12.70987834141319</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8031346138050434</v>
+        <v>0.9905503906199227</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-10.83202850461448</v>
+        <v>-10.80435846181715</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-12.78046241866634</v>
+        <v>-12.74171852846023</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.894709845920261</v>
+        <v>-2.518822339122244</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-11.86806738293776</v>
+        <v>-11.84665208729919</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-12.36750132515466</v>
+        <v>-12.52006048873809</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.0183338589129125</v>
+        <v>-0.4222735730610913</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-3.977499759146494</v>
+        <v>-4.369387083733868</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-3.947750189944107</v>
+        <v>-3.854077493796187</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12.46214009940687</v>
+        <v>12.34933068362506</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-2.325048290772078</v>
+        <v>-1.670625102067856</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-4.128310691031555</v>
+        <v>-3.831779151182636</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.898599487801832</v>
+        <v>6.883724890273429</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-5.59370381602388</v>
+        <v>-5.715564611010438</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-6.172508920126321</v>
+        <v>-6.616121503616641</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>7.429339698298425</v>
+        <v>7.049568823265568</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.2178632673719725</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05702417050580456</v>
+        <v>0.05702417050580442</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.2544125174994284</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4373651313189048</v>
+        <v>-0.4342744818032592</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4124137389300516</v>
+        <v>-0.4143868770422437</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.0288273131695224</v>
+        <v>0.03369306831223721</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2609602790460743</v>
+        <v>-0.2628506716984624</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3041631702185335</v>
+        <v>-0.3084469023578245</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.06862008427154943</v>
+        <v>-0.05774025668269342</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3242895312789996</v>
+        <v>-0.3239609014064839</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3387772084852942</v>
+        <v>-0.3422070119585517</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.0005901469269305767</v>
+        <v>-0.0132495649396482</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.1544727053288337</v>
+        <v>-0.181547450889277</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.1548268905503508</v>
+        <v>-0.1542725027790486</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.4980557527773532</v>
+        <v>0.4982176850947562</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.06304877431693796</v>
+        <v>-0.04392526472059383</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1084213765023635</v>
+        <v>-0.1074953067997031</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1836431947303587</v>
+        <v>0.1830255809713185</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.170269439730696</v>
+        <v>-0.1709697189538224</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1912009137894878</v>
+        <v>-0.1990957753228176</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.2261281721259972</v>
+        <v>0.2119564668028564</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.809479452951866</v>
+        <v>-1.219069201782159</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.320247301958666</v>
+        <v>-3.421694270343469</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.171576694488613</v>
+        <v>4.697859362524183</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.558860586959813</v>
+        <v>2.162187813100837</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.39712794685899</v>
+        <v>-3.676459107837211</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>5.452304978886822</v>
+        <v>5.634796654221008</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.643576952539272</v>
+        <v>1.858500512142076</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.973368916701286</v>
+        <v>-2.217063575135348</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>6.593701728611268</v>
+        <v>6.666223483498395</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.263912063008646</v>
+        <v>5.244300295517076</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.22580170217072</v>
+        <v>3.098584405185839</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.18617568862373</v>
+        <v>11.25407123971187</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.41870163879332</v>
+        <v>10.36064929707667</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.438071177480476</v>
+        <v>4.388763522222722</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>12.6951385072417</v>
+        <v>13.00435382303713</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>7.102815177586434</v>
+        <v>7.279255959445405</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.855925388169541</v>
+        <v>2.94628698934952</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>11.56588749690113</v>
+        <v>11.55892291130957</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1041738334069962</v>
+        <v>-0.07052142117813763</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1889259279871913</v>
+        <v>-0.1927397934223603</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.2345552258425603</v>
+        <v>0.2756123862806454</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.09489140387712496</v>
+        <v>0.08038798674834954</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1306002946860162</v>
+        <v>-0.1480482749361399</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2077018779309198</v>
+        <v>0.209228560542764</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07793791145988969</v>
+        <v>0.09181826032878447</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.0938171903574568</v>
+        <v>-0.1042500693529774</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.3068114492140989</v>
+        <v>0.3157221656092453</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3573558084060766</v>
+        <v>0.3751910540595926</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2199773027524266</v>
+        <v>0.2208341405337119</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.7785168044425724</v>
+        <v>0.7759904143638346</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4722754452412234</v>
+        <v>0.472014791906721</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2002684951475898</v>
+        <v>0.1982031454397556</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5708421398225209</v>
+        <v>0.5938230189634208</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3724915135627736</v>
+        <v>0.3936056735425087</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1524123128746363</v>
+        <v>0.1543828271498976</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.615995887067184</v>
+        <v>0.6143942197144406</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>1.954039543079412</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5.403323031777298</v>
+        <v>5.4033230317773</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>2.493029906930289</v>
@@ -1083,7 +1083,7 @@
         <v>1.403843222231049</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>5.352151142635758</v>
+        <v>5.352151142635753</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>4.617908832028878</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.91009137061241</v>
+        <v>3.052884332213916</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.197051365658161</v>
+        <v>-0.9219276281966418</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.54116722491763</v>
+        <v>2.427500219795305</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.274801306986865</v>
+        <v>-1.48087802556633</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.955253308467741</v>
+        <v>-2.655824533662549</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.025947347536144</v>
+        <v>1.949059742139467</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.034649142162962</v>
+        <v>1.984618092823557</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.8608185671043301</v>
+        <v>-0.7268924163778698</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.48998359304669</v>
+        <v>3.483121196463838</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.404546592340001</v>
+        <v>9.62533525868551</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.91853630862324</v>
+        <v>5.168499112608297</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.42018584171794</v>
+        <v>8.405991033320513</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.033737608897663</v>
+        <v>6.457782440871276</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.17751726262758</v>
+        <v>5.4988324281693</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>8.960036837790481</v>
+        <v>8.621886768895504</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>7.100131139913268</v>
+        <v>7.201749197225086</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>4.346210704431922</v>
+        <v>4.55470646974467</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>8.108021120541098</v>
+        <v>8.048864636292789</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.1654266825834214</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.4574389536994068</v>
+        <v>0.4574389536994071</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.1127261198542635</v>
@@ -1188,7 +1188,7 @@
         <v>0.06347689567858752</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2420056131319255</v>
+        <v>0.2420056131319253</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.2773003272268833</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.2251126525500043</v>
+        <v>0.2412464140601472</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.08597032854395255</v>
+        <v>-0.07136808923075566</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.1833649594111463</v>
+        <v>0.1899541988321312</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.05607721505098859</v>
+        <v>-0.06545464950920635</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1267137132007509</v>
+        <v>-0.1109860605800027</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07614272246152357</v>
+        <v>0.07661393575799576</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1129389040980976</v>
+        <v>0.1074538258491622</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.04731108345343004</v>
+        <v>-0.04273183516448463</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.1836574468142208</v>
+        <v>0.1904451630202464</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.9140291545075651</v>
+        <v>0.9314285181170483</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.4677061908781345</v>
+        <v>0.4757371569692378</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.8002084242087403</v>
+        <v>0.8171515416629825</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2971060647241765</v>
+        <v>0.3167998525463001</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2432365773440979</v>
+        <v>0.2709531777844938</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4493062963554744</v>
+        <v>0.41871015565087</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.459727580476522</v>
+        <v>0.4698823279103461</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2798915530841852</v>
+        <v>0.2883794785253392</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.5174181738400171</v>
+        <v>0.5151245569236019</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>4.239890392336501</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>5.753267694316425</v>
+        <v>5.753267694316428</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>7.787563181405279</v>
@@ -1306,7 +1306,7 @@
         <v>6.438392469884501</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>6.961167933807301</v>
+        <v>6.961167933807298</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.817428355975221</v>
+        <v>2.699085104858706</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.425422334903375</v>
+        <v>3.547257415756068</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.692863001862199</v>
+        <v>3.427698770077756</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.928613542322704</v>
+        <v>2.290980458146372</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.384350027680188</v>
+        <v>-1.350780032352668</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.7271392360042455</v>
+        <v>0.8505648904826864</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>4.334045485020645</v>
+        <v>4.624139706938902</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.773922187741793</v>
+        <v>2.892870248193297</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>4.197063835593902</v>
+        <v>3.905958591899191</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>11.54611199553892</v>
+        <v>11.46141013140696</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>12.37749802048439</v>
+        <v>12.41521965366118</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10.84700435386648</v>
+        <v>10.59816698196019</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13.78020109138106</v>
+        <v>13.57748823316505</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>9.448692560463517</v>
+        <v>10.08026629839383</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>10.26914810276364</v>
+        <v>10.15301439691962</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>11.26121629205315</v>
+        <v>11.37435253227343</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>9.844838781289287</v>
+        <v>9.83445874821442</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>9.690787354760136</v>
+        <v>9.567708725301946</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.2673922322399004</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3628346370079653</v>
+        <v>0.3628346370079654</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.6480670555356524</v>
@@ -1411,7 +1411,7 @@
         <v>0.5357914861357219</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.5792959236239065</v>
+        <v>0.5792959236239063</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.2256319617692461</v>
+        <v>0.250625334460278</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.2851613052899109</v>
+        <v>0.2984248919229312</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3215513000590272</v>
+        <v>0.2905887865472471</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.09214565808825241</v>
+        <v>0.1155021364606971</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.08952269254844174</v>
+        <v>-0.08541130048437778</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03413468881681897</v>
+        <v>0.037765292829427</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.316666037747139</v>
+        <v>0.3355982478188737</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.2038972450181628</v>
+        <v>0.2150289043801188</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.2957009088250177</v>
+        <v>0.2748243535237507</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.595677900471024</v>
+        <v>1.634697865026793</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.641213522201448</v>
+        <v>1.719429557616803</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.486798181143309</v>
+        <v>1.454171658042003</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.074742485442941</v>
+        <v>1.053795720990136</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7171923556381836</v>
+        <v>0.7821449720743445</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8376946532212753</v>
+        <v>0.7925205852209877</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.118964051954373</v>
+        <v>1.093113237571396</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.9488508352950565</v>
+        <v>0.9882038114369999</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.9433565456552396</v>
+        <v>0.9585702157032715</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.2171320462462853</v>
+        <v>0.2474664396688109</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.9138489850414551</v>
+        <v>-0.9493290865902054</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3.85773405058514</v>
+        <v>3.734225370585983</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.2788846163680108</v>
+        <v>-0.2323862439815225</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-3.202764297659446</v>
+        <v>-2.964076858188409</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>1.296016458463585</v>
+        <v>0.9739300433016256</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.5131522955458984</v>
+        <v>0.5451552261550325</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.643938743077436</v>
+        <v>-1.507263438538354</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>3.116233806675149</v>
+        <v>3.158703937973815</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.912502806746835</v>
+        <v>4.095766627419231</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.663769093265621</v>
+        <v>2.754784834211977</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7.499387761292063</v>
+        <v>7.498349554816343</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.007070698953378</v>
+        <v>4.107105770198837</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.170119206347936</v>
+        <v>1.099206184838202</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>5.226494554127551</v>
+        <v>5.26625539621559</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.62354891554721</v>
+        <v>3.470260432156961</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.446619502814382</v>
+        <v>1.353281676898597</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>5.921145695817538</v>
+        <v>5.918867835979905</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.01257217908822127</v>
+        <v>0.01252056665858683</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.05577499671757894</v>
+        <v>-0.05749688695794957</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.2331196970127143</v>
+        <v>0.2168870574066446</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.01139346694304208</v>
+        <v>-0.008361128449460024</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1137925249860119</v>
+        <v>-0.1081810627985277</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0458301326355473</v>
+        <v>0.0335793881802712</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02380017390288616</v>
+        <v>0.02443543439618277</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.07365733079171097</v>
+        <v>-0.0672773092635514</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.1431199547935786</v>
+        <v>0.1419225722226082</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.2600039199032489</v>
+        <v>0.2706915009324315</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1796921287585046</v>
+        <v>0.1855527838279346</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.5011155166881809</v>
+        <v>0.5082629453010645</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1560853248429532</v>
+        <v>0.1588532208415484</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.04369739275477078</v>
+        <v>0.04213547217999708</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2026624845795884</v>
+        <v>0.1997261225914033</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1762926150316456</v>
+        <v>0.167701588450329</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.07084380727435602</v>
+        <v>0.06584126554466578</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.2886064568027046</v>
+        <v>0.2856662290223551</v>
       </c>
     </row>
     <row r="34">
